--- a/AVXL.xlsx
+++ b/AVXL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F65DEDA-BDA7-2B4D-8369-6982F14359CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636C927A-788E-4EA0-B4C7-1CE0DB849BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="760" windowWidth="23860" windowHeight="19920" activeTab="2" xr2:uid="{274E451A-5C3F-C34C-8309-F345A53CB7D9}"/>
+    <workbookView xWindow="-34095" yWindow="315" windowWidth="34155" windowHeight="20580" activeTab="1" xr2:uid="{274E451A-5C3F-C34C-8309-F345A53CB7D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -482,7 +482,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9C789B0C-ADF4-4977-B89B-9C709B964EB2}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -499,15 +501,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>519281</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>77470</xdr:rowOff>
+      <xdr:colOff>458345</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>297079</xdr:colOff>
+      <xdr:colOff>444021</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>30432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -536,8 +538,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6843881" y="1563370"/>
-          <a:ext cx="7829598" cy="6172200"/>
+          <a:off x="6782086" y="1654341"/>
+          <a:ext cx="8078345" cy="6318365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -977,16 +979,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
-    <col min="2" max="7" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="10.875" style="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="10" width="7.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1012,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="F4" s="6"/>
       <c r="H4" s="1" t="s">
@@ -1043,7 +1045,7 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="F5" s="6"/>
       <c r="H5" s="1" t="s">
@@ -1056,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="F6" s="6"/>
       <c r="H6" s="1" t="s">
@@ -1069,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="F7" s="6"/>
       <c r="H7" s="1" t="s">
@@ -1081,11 +1083,11 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="F9" s="6"/>
       <c r="H9" s="1" t="s">
@@ -1098,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="F10" s="6"/>
       <c r="H10" s="1" t="s">
@@ -1111,39 +1113,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H16" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1151,17 +1153,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E20" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E22" s="1" t="s">
         <v>52</v>
       </c>
@@ -1178,31 +1180,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB2C90A-EC98-3E4F-99A8-2768003AD1EE}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="133" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1210,7 +1212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1218,7 +1220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,7 +1228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1234,71 +1236,71 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="17">
         <f>191/298</f>
         <v>0.64093959731543626</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C41" s="15" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +1317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="20">
         <v>30.25</v>
       </c>
@@ -1343,7 +1345,7 @@
         <v>4.0799999999999983</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="20">
         <v>28.75</v>
       </c>
@@ -1371,41 +1373,41 @@
         <v>2.7399999999999984</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I45" s="1">
         <f>I42-I43</f>
         <v>1.3399999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>55</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>33</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>58</v>
       </c>
@@ -1429,22 +1431,22 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>63</v>
       </c>
@@ -1462,20 +1464,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39557E3-2963-C44D-9264-B948B79F761C}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0"/>
+    <sheetView zoomScale="162" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1483,7 +1485,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
@@ -1491,22 +1493,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1514,17 +1516,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1532,7 +1534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1540,32 +1542,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>73</v>
       </c>

--- a/AVXL.xlsx
+++ b/AVXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636C927A-788E-4EA0-B4C7-1CE0DB849BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F50F0-F718-4579-914D-969CA5166240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34095" yWindow="315" windowWidth="34155" windowHeight="20580" activeTab="1" xr2:uid="{274E451A-5C3F-C34C-8309-F345A53CB7D9}"/>
+    <workbookView xWindow="-26640" yWindow="960" windowWidth="25080" windowHeight="18540" activeTab="1" xr2:uid="{274E451A-5C3F-C34C-8309-F345A53CB7D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>Price</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Clinical Trials</t>
   </si>
   <si>
-    <t>2.027 ADAS-Cog difference</t>
-  </si>
-  <si>
     <t>n=168, 170, 170</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>CMO: Edward Hammond</t>
   </si>
   <si>
-    <t>Co-primary endpoint changed from ADAS-Cog+ADCS-ADL to ADAS-Cog+CDR-SB</t>
-  </si>
-  <si>
     <t xml:space="preserve">  30mg, 50mg, placebo</t>
   </si>
   <si>
@@ -241,12 +235,6 @@
     <t>AD</t>
   </si>
   <si>
-    <t>Phase IIB/III "AVANEX2-73-AD-004" n=509 AD - NCT03790709</t>
-  </si>
-  <si>
-    <t>Initiated August 2018</t>
-  </si>
-  <si>
     <t>Patent says sigma regulates NMDA, dopamine and acetylcholine</t>
   </si>
   <si>
@@ -287,19 +275,71 @@
   </si>
   <si>
     <t>binds to Kv1.2, IP3R3</t>
+  </si>
+  <si>
+    <t>Phase IIB/III "AVANEX2-73-AD-004" 48-week n=509 AD trial - NCT03790709</t>
+  </si>
+  <si>
+    <t>96-week OLE "ATTENTION-AD" NCT04314934</t>
+  </si>
+  <si>
+    <t>Australia - 19 sites</t>
+  </si>
+  <si>
+    <t>UK - 15 sites</t>
+  </si>
+  <si>
+    <t>Canada - 10 sites</t>
+  </si>
+  <si>
+    <t>Germany - 5 sites</t>
+  </si>
+  <si>
+    <t>Netherlands - 3 sites</t>
+  </si>
+  <si>
+    <t>Initiated August 2018, enrolled 508 patients from 11/17/2018 to 6/28/22, database lock 11/17/22</t>
+  </si>
+  <si>
+    <t>Co-primary endpoint changed from ADAS-Cog13+ADCS-ADL to ADAS-Cog+CDR-SB</t>
+  </si>
+  <si>
+    <t>Powering assumption was 1.5 points, SD=4.5</t>
+  </si>
+  <si>
+    <t>2.027 ADAS-Cog difference, p=0.008 for blarcamesine combined vs. placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  50mg -2.149 (p=0.021), 30mg -1.934 (p=0.026)</t>
+  </si>
+  <si>
+    <t>ADCS-ADL FAILED. Blamed early AD population and low sensitivity of scale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Even  when early termination patients were excluded, the placebo group performed better than the blarcamesine group in these early phases (includ- ing Week 12) (Supplemental Figure 3). Therefore, there is no evidence that early termination will introduce a bias in favor of blarcamesine. </t>
+  </si>
+  <si>
+    <t>Blarcamesine and placebo groups had 72 (75%) and 16 (57.2%) patient discontinuations in this early titration phase on or before Week 
+24, primarily due to TEAEs (Supplemental Table 2, Supplemental Figure 2). 40 (41.7%) blarcamesine patients and 5 (17.9%) placebo patients dropped out on or before the ﬁrst analysis visit (Week 12).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -443,39 +483,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,13 +544,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>458345</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>7161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>444021</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>30432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -552,13 +594,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>844643</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>63405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>305563</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>91448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -596,14 +638,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -649,6 +691,182 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>771160</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>39910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7D5CCD-50AB-8698-2D9E-9E61AC97A992}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15739171" y="1618740"/>
+          <a:ext cx="12758398" cy="7824943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>447216</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>77421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>136580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06EADFE-F043-D410-1642-4F79F31AE5C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15704534" y="9481194"/>
+          <a:ext cx="12316284" cy="9255113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>441090</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>53606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E24AEB2-9E59-3C37-D13E-D4525DF0F5C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6217228" y="11464636"/>
+          <a:ext cx="8649907" cy="5630061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>50047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6FA6B5-F71D-1D45-49F8-A2109EBF4C0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6768353" y="7888941"/>
+          <a:ext cx="8583706" cy="6482224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1091,7 +1309,7 @@
       <c r="B9" s="5"/>
       <c r="F9" s="6"/>
       <c r="H9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I9" s="3">
         <v>454.23599999999999</v>
@@ -1104,7 +1322,7 @@
       <c r="B10" s="5"/>
       <c r="F10" s="6"/>
       <c r="H10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I10" s="3">
         <v>324.45100000000002</v>
@@ -1132,40 +1350,40 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1178,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB2C90A-EC98-3E4F-99A8-2768003AD1EE}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="133" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1199,20 +1417,20 @@
     <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1220,7 +1438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,227 +1446,268 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="15"/>
+      <c r="F13" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="17">
+      <c r="F16" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="17">
         <f>191/298</f>
         <v>0.64093959731543626</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C41" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="G43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="20">
+        <v>30.25</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="1">
+        <v>29.18</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="F44" s="1">
+        <v>33.26</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H44" s="21">
+        <f>B44/D44-1</f>
+        <v>3.6668951336531919E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <f>F44-D44</f>
+        <v>4.0799999999999983</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="20">
+        <v>28.75</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="19" t="s">
+      <c r="D45" s="1">
+        <v>27.62</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="F45" s="1">
+        <v>30.36</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H45" s="21">
+        <f>B45/D45-1</f>
+        <v>4.0912382331643737E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <f>F45-D45</f>
+        <v>2.7399999999999984</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="20">
-        <v>30.25</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="1">
-        <v>29.18</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="F42" s="1">
-        <v>33.26</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="H42" s="21">
-        <f>B42/D42-1</f>
-        <v>3.6668951336531919E-2</v>
-      </c>
-      <c r="I42" s="1">
-        <f>F42-D42</f>
-        <v>4.0799999999999983</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="20">
-        <v>28.75</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="1">
-        <v>27.62</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="F43" s="1">
-        <v>30.36</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="H43" s="21">
-        <f>B43/D43-1</f>
-        <v>4.0912382331643737E-2</v>
-      </c>
-      <c r="I43" s="1">
-        <f>F43-D43</f>
-        <v>2.7399999999999984</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="1">
-        <f>I42-I43</f>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="1">
+        <f>I44-I45</f>
         <v>1.3399999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>40</v>
-      </c>
+    <row r="48" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>38</v>
+      <c r="B49" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1479,46 +1738,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1528,48 +1787,48 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/AVXL.xlsx
+++ b/AVXL.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F50F0-F718-4579-914D-969CA5166240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E8396-96D5-4E67-98FB-EA88569125E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26640" yWindow="960" windowWidth="25080" windowHeight="18540" activeTab="1" xr2:uid="{274E451A-5C3F-C34C-8309-F345A53CB7D9}"/>
+    <workbookView xWindow="7965" yWindow="5175" windowWidth="20760" windowHeight="10725" xr2:uid="{274E451A-5C3F-C34C-8309-F345A53CB7D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="blarcamesine" sheetId="2" r:id="rId2"/>
-    <sheet name="Sigma" sheetId="3" r:id="rId3"/>
+    <sheet name="IP" sheetId="4" r:id="rId3"/>
+    <sheet name="Sigma" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
   <si>
     <t>Price</t>
   </si>
@@ -58,9 +59,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -188,12 +186,6 @@
   </si>
   <si>
     <t>Co-founder/CSO: Alexandre Vamvakides</t>
-  </si>
-  <si>
-    <t>2004: founded by Harvey Lalach and Athanasios Skarpelos as Thrifty Printing.</t>
-  </si>
-  <si>
-    <t>1/25/2007: changes name to Anavex Life Sciences</t>
   </si>
   <si>
     <t>1/31/2007: Alexandre Vamvakides agreement.</t>
@@ -321,19 +313,133 @@
   <si>
     <t>Blarcamesine and placebo groups had 72 (75%) and 16 (57.2%) patient discontinuations in this early titration phase on or before Week 
 24, primarily due to TEAEs (Supplemental Table 2, Supplemental Figure 2). 40 (41.7%) blarcamesine patients and 5 (17.9%) placebo patients dropped out on or before the ﬁrst analysis visit (Week 12).</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Fake</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2024: filed with EMA</t>
+  </si>
+  <si>
+    <t>YE25: review response according to Missling Q424 earnings call.</t>
+  </si>
+  <si>
+    <t>6/13/2015: 210 day clock</t>
+  </si>
+  <si>
+    <t>PMID 12514509 - A Vamvakidès</t>
+  </si>
+  <si>
+    <t>Laboratoire de pharmacologie expérimentale, Faculté de Médecine d'Athènes, Grèce</t>
+  </si>
+  <si>
+    <t>1/25/2007: changes name to Anavex Life Sciences, ticker change.</t>
+  </si>
+  <si>
+    <t>1/23/2004: founded by Harvey Lalach and Athanasios Skarpelos as Thrifty Printing.</t>
+  </si>
+  <si>
+    <t>Patent No. 1002616/Greece</t>
+  </si>
+  <si>
+    <t>February 21, 1996/</t>
+  </si>
+  <si>
+    <t>February 20, 1997/</t>
+  </si>
+  <si>
+    <t>Invention related to the synthesis and the method of synthesis of molecules of a novel formula. This method is to be applied for the obtention of anticonvulsant, antidepressant and nootropic pharmaceuticals.</t>
+  </si>
+  <si>
+    <t>Patent No. 1004208/Greece</t>
+  </si>
+  <si>
+    <t>October 15, 2001/</t>
+  </si>
+  <si>
+    <t>April 4, 2003/</t>
+  </si>
+  <si>
+    <t>Aminotetrahydrofuran derivatives, muscarinic/sigma/sodium channel ligands, with synergic sigma/muscarinic (neuroactivating) and sigma/sodium channel (neuroprotective) components, as prototypical activating – neuroprotectors and neuroregenerative drugs</t>
+  </si>
+  <si>
+    <t>Patent No. 1004868/Greece</t>
+  </si>
+  <si>
+    <t>April 22, 2003/</t>
+  </si>
+  <si>
+    <t>April 26, 2005/</t>
+  </si>
+  <si>
+    <t>Aminotetrahydrofuran derivatives, muscarinic/sigma/sodium channel ligands, ortho-and allo-sterically operating, as prototypical neuromodulating and neuroregenerative drugs</t>
+  </si>
+  <si>
+    <t>Patent Application No. 20070100020/ Greece</t>
+  </si>
+  <si>
+    <t>New sigma (s) receptor ligands with anti-apoptotic and/or pro-apoptotic properties over cellular biochemical mechanisms, with neuroprotective, anti-cancer, anti-metastatic and anti-(chronic) inflammatory action</t>
+  </si>
+  <si>
+    <t>Invention related to the synthesis and the method of synthesis of molecules of a novel formula.</t>
+  </si>
+  <si>
+    <t>This method is to be applied for the obtention of anticonvulsant, antidepressant and nootropic pharmaceuticals.</t>
+  </si>
+  <si>
+    <t>New sigma (s) receptor ligands with anti-apoptotic and/or pro-apoptotic properties over cellular biochemical mechanisms, with neuroprotective, anti-cancer, anti-metastatic and anti-(chronic) inflammatory action.</t>
+  </si>
+  <si>
+    <t>Dr. Alexandre Vamvakides, Chief Scientific Officer and Director</t>
+  </si>
+  <si>
+    <t>Prior to joining our company, Dr. Vamvakides has spent thirty years in research focusing on the therapeutic/pharmacological areas of nootropes, anti-neurodegenerative (anti-Alzheimer), antiepileptic, antidepressive, and prototype molecules. During his career, Dr. Vamvakides has been published over 80 times in highly respected Medical/Scientific journals. In the past 30 years, Dr. Vamvakides has pioneered his expertise at the Institut National de la</t>
+  </si>
+  <si>
+    <t>Sante et de la Recherche Medicale (INSERM) in Paris France, at the University of Athens (Greece) as well as at Chropi Pharmaceuticals (Piraeus, Greece), Ciba-Geigy (Basel, Switzerland) and Sanofi (Montpellier, France) for the development of new concepts in the aforementioned therapeutic/pharmacological areas.</t>
+  </si>
+  <si>
+    <t>Dr. Vamvakides holds a M.Sc. in Chemistry from Bordeaux University, France, a M.Sc. in Pharmacology, a M.Sc. in Biochemistry and a Ph.D. in Molecular Pharmacology all from the University of Paris, Medical School.</t>
+  </si>
+  <si>
+    <t>ALEXANDROS  VAMVAKIDIS</t>
+  </si>
+  <si>
+    <t>Several pharmacological targets have been identified for ANAVEX1-41. In particular, pharmacological screening using competition binding confirmed that ANAVEX1-41 is a potent muscarinic acetylcholine receptor ligand and a s1 receptor ligand. Functional tests in the rabbit vas deferens, guinea-pig atria and ileum revealed that the drug is an M1 muscarinic acetylcholine receptor agonist and an M2/M3 receptor antagonist, with a median efficacy of 1mM (for M1 and M2) and 0.3mM (for M3).</t>
+  </si>
+  <si>
+    <t>LU 25-109</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/10668706/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/3281057/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -374,6 +480,25 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -483,41 +608,58 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -549,7 +691,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>444021</xdr:colOff>
+      <xdr:colOff>444022</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>30432</xdr:rowOff>
     </xdr:to>
@@ -750,7 +892,7 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>294409</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>136580</xdr:rowOff>
+      <xdr:rowOff>103036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -794,7 +936,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>441090</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>53606</xdr:rowOff>
+      <xdr:rowOff>34971</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -863,6 +1005,55 @@
         <a:xfrm>
           <a:off x="6768353" y="7888941"/>
           <a:ext cx="8583706" cy="6482224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>432955</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>636767</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>744201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FD3909-92D3-BC46-5A8E-FA495FA161E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5489864" y="3931228"/>
+          <a:ext cx="8516539" cy="2753109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1191,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B19DC9-089E-0845-9EC6-A85530307FC2}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1208,47 +1399,52 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>9.1</v>
+        <v>7.33</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>93</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>84.795517000000004</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>6</v>
+        <v>85.064199000000002</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
@@ -1259,7 +1455,7 @@
       </c>
       <c r="I4" s="3">
         <f>I2*I3</f>
-        <v>771.63920470000005</v>
+        <v>623.52057867000008</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -1270,120 +1466,116 @@
         <v>3</v>
       </c>
       <c r="I5" s="3">
-        <v>138.756</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>6</v>
+        <v>120.77500000000001</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
       <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>6</v>
+      <c r="J6" s="23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="F7" s="6"/>
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="3">
         <f>I4-I5+I6</f>
-        <v>632.88320470000008</v>
+        <v>502.7455786700001</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="24" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="25"/>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3">
-        <v>454.23599999999999</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>6</v>
+        <v>459.012</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I10" s="3">
-        <v>324.45100000000002</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>6</v>
+        <v>348.18200000000002</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H16" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E22" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1396,15 +1588,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB2C90A-EC98-3E4F-99A8-2768003AD1EE}">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
@@ -1419,123 +1611,123 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>93</v>
+        <v>83</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="15"/>
       <c r="F13" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F18" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
@@ -1546,34 +1738,34 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C43" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="E43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>30</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
@@ -1581,7 +1773,7 @@
         <v>30.25</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1">
         <v>29.18</v>
@@ -1609,7 +1801,7 @@
         <v>28.75</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="1">
         <v>27.62</v>
@@ -1634,7 +1826,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
@@ -1648,66 +1840,166 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>55</v>
+      <c r="B87" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B111" s="27">
+        <v>42786</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="27">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="27">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="27">
+        <v>39099</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1720,6 +2012,154 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355E4738-6709-4ED0-BCBF-547D5468002F}">
+  <dimension ref="B3:G29"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="28">
+        <v>42786</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="28">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="28">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="28">
+        <v>39099</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="31"/>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="30"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E27" r:id="rId1" xr:uid="{73734EA4-69D6-472E-AEFF-5D379F0563B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39557E3-2963-C44D-9264-B948B79F761C}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1733,102 +2173,102 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
